--- a/Data Extraction And Loading/Program Files/Documentation/Incremental Extract Id Log.xlsx
+++ b/Data Extraction And Loading/Program Files/Documentation/Incremental Extract Id Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuck\Documents\ROC\Speedway-Source\Data Extraction And Loading\Program Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuck\Documents\ROC\Speedway-Source\Data Extraction And Loading\Program Files\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28EFC9E-C995-481F-AB72-1E78388EBCE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8954EF71-94B4-406B-9CE3-AA0F4F47B60C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="21360" windowHeight="11256" xr2:uid="{0135E054-86DB-4035-ABD2-6FBDB4A98B5D}"/>
+    <workbookView xWindow="936" yWindow="684" windowWidth="21600" windowHeight="11328" xr2:uid="{0135E054-86DB-4035-ABD2-6FBDB4A98B5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>Increment Id Vales</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Ran a second extract on</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Same next Id</t>
   </si>
 </sst>
 </file>
@@ -62,7 +68,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -93,9 +99,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -117,16 +124,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>746760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -156,8 +163,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4831080" y="2331720"/>
-          <a:ext cx="11049000" cy="1607820"/>
+          <a:off x="4594860" y="22860"/>
+          <a:ext cx="11376660" cy="1607820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -489,26 +496,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83CB603-8619-42D3-AE6B-D53781158A1E}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -519,7 +526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43550.363194444442</v>
       </c>
@@ -530,7 +537,7 @@
         <v>1116629</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43508.48333333333</v>
       </c>
@@ -540,8 +547,11 @@
       <c r="C5">
         <v>2217696</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>2217696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43542.613194444442</v>
       </c>
@@ -552,37 +562,149 @@
         <v>1159508</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43596.813194444447</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1120842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43596.809027777781</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
+      <c r="C9">
+        <v>2321664</v>
+      </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="1">
         <v>43598.329861111109</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43596.813194444447</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
+      </c>
+      <c r="C10">
+        <v>1161211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43596.813194444447</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43596.809027777781</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43596.813194444447</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>43635</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>1124379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>43635</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>2396774</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>43635</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>1161916</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>43659</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>1125083</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>43659</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>2401993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>43659</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>1163221</v>
       </c>
     </row>
   </sheetData>

--- a/Data Extraction And Loading/Program Files/Documentation/Incremental Extract Id Log.xlsx
+++ b/Data Extraction And Loading/Program Files/Documentation/Incremental Extract Id Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuck\Documents\ROC\Speedway-Source\Data Extraction And Loading\Program Files\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8954EF71-94B4-406B-9CE3-AA0F4F47B60C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54F683D-1C37-4DEE-92AC-3ED28FC626BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="684" windowWidth="21600" windowHeight="11328" xr2:uid="{0135E054-86DB-4035-ABD2-6FBDB4A98B5D}"/>
+    <workbookView xWindow="1320" yWindow="972" windowWidth="21720" windowHeight="11508" xr2:uid="{0135E054-86DB-4035-ABD2-6FBDB4A98B5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>Increment Id Vales</t>
   </si>
@@ -496,26 +496,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83CB603-8619-42D3-AE6B-D53781158A1E}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43550.363194444442</v>
       </c>
@@ -537,7 +537,7 @@
         <v>1116629</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43508.48333333333</v>
       </c>
@@ -551,7 +551,7 @@
         <v>2217696</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43542.613194444442</v>
       </c>
@@ -562,10 +562,10 @@
         <v>1159508</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43596.813194444447</v>
       </c>
@@ -576,7 +576,7 @@
         <v>1120842</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43596.809027777781</v>
       </c>
@@ -596,7 +596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43596.813194444447</v>
       </c>
@@ -607,12 +607,12 @@
         <v>1161211</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43596.813194444447</v>
       </c>
@@ -620,7 +620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43596.809027777781</v>
       </c>
@@ -628,7 +628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43596.813194444447</v>
       </c>
@@ -636,12 +636,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43635</v>
       </c>
@@ -652,7 +652,7 @@
         <v>1124379</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43635</v>
       </c>
@@ -663,7 +663,7 @@
         <v>2396774</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43635</v>
       </c>
@@ -674,7 +674,7 @@
         <v>1161916</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43659</v>
       </c>
@@ -685,7 +685,7 @@
         <v>1125083</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43659</v>
       </c>
@@ -696,7 +696,7 @@
         <v>2401993</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43659</v>
       </c>
@@ -705,6 +705,39 @@
       </c>
       <c r="C24">
         <v>1163221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>43708</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>1126308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>43708</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>2413068</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>43708</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>1164419</v>
       </c>
     </row>
   </sheetData>
